--- a/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
+++ b/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\trans\BVTStL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murielle.gagnebin\Documents\02_ProjetsPays\01_DE\2004_EPS_Europe\eps-us-2.1.0\InputData\trans\BVTStL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7689323F-AFD4-4832-BA0E-D2D761FBC18C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="23955" windowHeight="11325"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BVTStL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Source:</t>
   </si>
@@ -64,32 +73,62 @@
     <t>types will be unaffected by the LCFS.</t>
   </si>
   <si>
-    <t>California Air Resources Board</t>
-  </si>
-  <si>
-    <t>Low Carbon Fuel Standard: Final Regulation Order</t>
-  </si>
-  <si>
-    <t>https://www.arb.ca.gov/regact/2015/lcfs2015/lcfsfinalregorder.pdf</t>
-  </si>
-  <si>
-    <t>Page 15</t>
-  </si>
-  <si>
     <t>BVTStL Boolean Vehicle Types Subject to LCFS</t>
   </si>
   <si>
     <t>(Boolean)</t>
   </si>
   <si>
-    <t>Based on the California LCFS, we choose to exempt aircraft.</t>
+    <t>Based on the Renewable energy directive 2018 (RED II), we choose</t>
+  </si>
+  <si>
+    <t>to exempt aircraft, rail, and ship modes.  All three on-road modes (LDVs,</t>
+  </si>
+  <si>
+    <t>HDVs, motorbikes) are considered to be subject to the LCFS.</t>
+  </si>
+  <si>
+    <t>LCFS fuels use in rail and ship modes seem to remain negligible in the</t>
+  </si>
+  <si>
+    <t>Potencia central scenario until 2050, and the 14% target share of</t>
+  </si>
+  <si>
+    <t>renewable energy in transport energy consumption seems to be</t>
+  </si>
+  <si>
+    <t>especially applicable to road transport modes.</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/PDF/?uri=CELEX:32018L2001&amp;from=EN</t>
+  </si>
+  <si>
+    <t>Article 25-27</t>
+  </si>
+  <si>
+    <t>EU Renewable energy directive (RED II)</t>
+  </si>
+  <si>
+    <t>JRC C.6 (European Commission)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POTEnCIA - Energy balances 2000-2050 (annual) </t>
+  </si>
+  <si>
+    <t>LCFS targets</t>
+  </si>
+  <si>
+    <t>Share of renewable fuels in the transport modes</t>
+  </si>
+  <si>
+    <t>EU28: Central_2018; Tabs "tro" (road transport), "tra" (rail), "tav" (aviation), "tnav" (shipping)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,13 +144,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,10 +176,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -135,9 +189,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -153,7 +211,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -228,6 +286,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -263,6 +338,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -438,76 +530,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="2">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -517,26 +672,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1328125" customWidth="1"/>
-    <col min="2" max="2" width="15.1328125" customWidth="1"/>
-    <col min="3" max="3" width="13.1328125" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
@@ -545,7 +700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -556,7 +711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -567,7 +722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -578,29 +733,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>

--- a/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
+++ b/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
@@ -1,35 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murielle.gagnebin\Documents\02_ProjetsPays\01_DE\2004_EPS_Europe\eps-us-2.1.0\InputData\trans\BVTStL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\trans\BVTStL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7689323F-AFD4-4832-BA0E-D2D761FBC18C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="23955" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BVTStL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Source:</t>
   </si>
@@ -73,62 +64,32 @@
     <t>types will be unaffected by the LCFS.</t>
   </si>
   <si>
+    <t>California Air Resources Board</t>
+  </si>
+  <si>
+    <t>Low Carbon Fuel Standard: Final Regulation Order</t>
+  </si>
+  <si>
+    <t>https://www.arb.ca.gov/regact/2015/lcfs2015/lcfsfinalregorder.pdf</t>
+  </si>
+  <si>
+    <t>Page 15</t>
+  </si>
+  <si>
     <t>BVTStL Boolean Vehicle Types Subject to LCFS</t>
   </si>
   <si>
     <t>(Boolean)</t>
   </si>
   <si>
-    <t>Based on the Renewable energy directive 2018 (RED II), we choose</t>
-  </si>
-  <si>
-    <t>to exempt aircraft, rail, and ship modes.  All three on-road modes (LDVs,</t>
-  </si>
-  <si>
-    <t>HDVs, motorbikes) are considered to be subject to the LCFS.</t>
-  </si>
-  <si>
-    <t>LCFS fuels use in rail and ship modes seem to remain negligible in the</t>
-  </si>
-  <si>
-    <t>Potencia central scenario until 2050, and the 14% target share of</t>
-  </si>
-  <si>
-    <t>renewable energy in transport energy consumption seems to be</t>
-  </si>
-  <si>
-    <t>especially applicable to road transport modes.</t>
-  </si>
-  <si>
-    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/PDF/?uri=CELEX:32018L2001&amp;from=EN</t>
-  </si>
-  <si>
-    <t>Article 25-27</t>
-  </si>
-  <si>
-    <t>EU Renewable energy directive (RED II)</t>
-  </si>
-  <si>
-    <t>JRC C.6 (European Commission)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POTEnCIA - Energy balances 2000-2050 (annual) </t>
-  </si>
-  <si>
-    <t>LCFS targets</t>
-  </si>
-  <si>
-    <t>Share of renewable fuels in the transport modes</t>
-  </si>
-  <si>
-    <t>EU28: Central_2018; Tabs "tro" (road transport), "tra" (rail), "tav" (aviation), "tnav" (shipping)</t>
+    <t>Based on the California LCFS, we choose to exempt aircraft.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,27 +105,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -176,11 +123,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -189,13 +135,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -211,7 +153,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -286,23 +228,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -338,23 +263,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -530,139 +438,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -672,26 +517,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1328125" customWidth="1"/>
+    <col min="2" max="2" width="15.1328125" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
@@ -700,7 +545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -711,7 +556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -722,7 +567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -733,29 +578,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>

--- a/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
+++ b/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
@@ -1,35 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murielle.gagnebin\Documents\02_ProjetsPays\01_DE\2004_EPS_Europe\eps-us-2.1.0\InputData\trans\BVTStL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\trans\BVTStL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7689323F-AFD4-4832-BA0E-D2D761FBC18C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B748A387-264B-4ED0-9400-910230BD852C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="720" windowWidth="26730" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BVTStL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Source:</t>
   </si>
@@ -73,62 +65,32 @@
     <t>types will be unaffected by the LCFS.</t>
   </si>
   <si>
-    <t>BVTStL Boolean Vehicle Types Subject to LCFS</t>
+    <t>California Air Resources Board</t>
+  </si>
+  <si>
+    <t>Low Carbon Fuel Standard: Final Regulation Order</t>
+  </si>
+  <si>
+    <t>https://www.arb.ca.gov/regact/2015/lcfs2015/lcfsfinalregorder.pdf</t>
+  </si>
+  <si>
+    <t>Page 15</t>
   </si>
   <si>
     <t>(Boolean)</t>
   </si>
   <si>
-    <t>Based on the Renewable energy directive 2018 (RED II), we choose</t>
-  </si>
-  <si>
-    <t>to exempt aircraft, rail, and ship modes.  All three on-road modes (LDVs,</t>
-  </si>
-  <si>
-    <t>HDVs, motorbikes) are considered to be subject to the LCFS.</t>
-  </si>
-  <si>
-    <t>LCFS fuels use in rail and ship modes seem to remain negligible in the</t>
-  </si>
-  <si>
-    <t>Potencia central scenario until 2050, and the 14% target share of</t>
-  </si>
-  <si>
-    <t>renewable energy in transport energy consumption seems to be</t>
-  </si>
-  <si>
-    <t>especially applicable to road transport modes.</t>
-  </si>
-  <si>
-    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/PDF/?uri=CELEX:32018L2001&amp;from=EN</t>
-  </si>
-  <si>
-    <t>Article 25-27</t>
-  </si>
-  <si>
-    <t>EU Renewable energy directive (RED II)</t>
-  </si>
-  <si>
-    <t>JRC C.6 (European Commission)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POTEnCIA - Energy balances 2000-2050 (annual) </t>
-  </si>
-  <si>
-    <t>LCFS targets</t>
-  </si>
-  <si>
-    <t>Share of renewable fuels in the transport modes</t>
-  </si>
-  <si>
-    <t>EU28: Central_2018; Tabs "tro" (road transport), "tra" (rail), "tav" (aviation), "tnav" (shipping)</t>
+    <t>Based on the California LCFS, we choose to exempt aircraft.</t>
+  </si>
+  <si>
+    <t>BVTStL BAU Vehicle Types Subject to LCFS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,27 +106,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -176,11 +124,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -189,13 +136,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -211,9 +154,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -251,9 +194,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,26 +229,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,26 +264,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -531,138 +440,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -679,10 +525,10 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
@@ -691,7 +537,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
@@ -738,10 +584,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -749,10 +595,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">

--- a/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
+++ b/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\trans\BVTStL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\trans\BVTStL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B748A387-264B-4ED0-9400-910230BD852C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="720" windowWidth="26730" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="23955" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -77,19 +76,19 @@
     <t>Page 15</t>
   </si>
   <si>
+    <t>BVTStL Boolean Vehicle Types Subject to LCFS</t>
+  </si>
+  <si>
     <t>(Boolean)</t>
   </si>
   <si>
     <t>Based on the California LCFS, we choose to exempt aircraft.</t>
-  </si>
-  <si>
-    <t>BVTStL BAU Vehicle Types Subject to LCFS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,9 +153,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -194,9 +193,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,7 +230,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,7 +265,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,21 +438,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,54 +460,54 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -518,7 +517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -528,16 +527,16 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1328125" customWidth="1"/>
+    <col min="2" max="2" width="15.1328125" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
@@ -546,7 +545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -557,7 +556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -568,7 +567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -579,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -590,7 +589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -601,7 +600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>

--- a/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
+++ b/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\trans\BVTStL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\trans\BVTStL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B748A387-264B-4ED0-9400-910230BD852C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="23955" windowHeight="11325"/>
+    <workbookView xWindow="735" yWindow="720" windowWidth="26730" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -76,19 +77,19 @@
     <t>Page 15</t>
   </si>
   <si>
-    <t>BVTStL Boolean Vehicle Types Subject to LCFS</t>
-  </si>
-  <si>
     <t>(Boolean)</t>
   </si>
   <si>
     <t>Based on the California LCFS, we choose to exempt aircraft.</t>
+  </si>
+  <si>
+    <t>BVTStL BAU Vehicle Types Subject to LCFS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,9 +154,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -193,9 +194,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,7 +231,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -265,7 +266,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -438,21 +439,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,54 +461,54 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -517,7 +518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -527,16 +528,16 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1328125" customWidth="1"/>
-    <col min="2" max="2" width="15.1328125" customWidth="1"/>
-    <col min="3" max="3" width="13.1328125" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
@@ -545,7 +546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -556,7 +557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -567,7 +568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -578,7 +579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -589,7 +590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -600,7 +601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>

--- a/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
+++ b/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\trans\BVTStL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\trans\BVTStL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B748A387-264B-4ED0-9400-910230BD852C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F5FFD1-2CD2-403E-979F-3EAC8617CB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="720" windowWidth="26730" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="465" yWindow="1320" windowWidth="16695" windowHeight="15135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -524,8 +524,8 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,10 +551,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -562,10 +562,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -584,10 +584,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -595,10 +595,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -606,10 +606,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
